--- a/pred_ohlcv/54_21/2019-10-29 ETHOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 ETHOS ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>-341079.1738</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-345371.0487</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-345351.0487</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-350351.0487</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-371081.5924</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-347372.9731999999</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-262558.1242</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-264077.67469966</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-285937.70819966</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-300009.37919966</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-300009.37919966</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-291135.64839966</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-291124.64839966</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-291124.64839966</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-302241.74419966</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-529049.43992331</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-529049.43992331</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-544483.7546233099</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-557615.3505233099</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-549815.3505233099</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-550923.1205233099</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-535487.0315233099</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-614181.87914696</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-615088.87904696</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-655966.44044696</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 ETHOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 ETHOS ohlcv.xlsx
@@ -1848,7 +1848,7 @@
         <v>-300009.37919966</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-291135.64839966</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-291124.64839966</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-529049.43992331</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-529049.43992331</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-529049.43992331</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-529038.43992331</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-557626.3505233099</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-535487.0315233099</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-522394.4634469599</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-522383.4634469599</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-521970.1688469599</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-523608.1687469599</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-523597.1687469599</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-531177.1687469599</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-530837.1687469599</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-536933.1686469599</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-536964.1686469599</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-559000.1686469599</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-552068.1686469599</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-539233.5813469599</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-542460.5813469599</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-542460.5813469599</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-542449.5813469599</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-542438.5813469599</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-530180.8012469599</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-534328.5979469599</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-525716.5979469599</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-532272.1184469599</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-533095.0092469599</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-537360.00914696</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-537360.00914696</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-536960.00914696</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-542876.89324696</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-542865.89324696</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-542865.89324696</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-543723.09984696</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-543712.09984696</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-549900.09984696</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-549889.09984696</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-549878.09984696</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-542409.09994696</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-602817.37914696</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-602817.37914696</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-602817.37914696</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-602817.37914696</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-608868.87914696</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-605432.87914696</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-605432.87914696</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-614181.87914696</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-615404.87904696</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-615088.87904696</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-616249.6472469601</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-655966.44044696</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-652938.44044696</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-666532.6764469601</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
